--- a/biltema-count.xlsx
+++ b/biltema-count.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boe\Documents\BoE\git\ewarm\lpc2138-sk\arm\9.10.2\NXP\LPC213x\IAR-P213x\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268890F6-7576-4A57-A352-D69780EEC64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A413AAFE-1B27-4A38-B1DE-C0D5850860C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B61B452-E600-4EBA-B8C4-BD7C91B691E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6B61B452-E600-4EBA-B8C4-BD7C91B691E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>lpc2138-biltema-teraterm</t>
   </si>
@@ -185,6 +188,72 @@
   </si>
   <si>
     <t xml:space="preserve">((speed for 1 pulse / revolution)  / pulser per varv) * 360 (in units of "(10m)/h" ) </t>
+  </si>
+  <si>
+    <t>nTimes,</t>
+  </si>
+  <si>
+    <t>Speed:</t>
+  </si>
+  <si>
+    <t>10k -94 mv</t>
+  </si>
+  <si>
+    <t>1k -9.4 mv</t>
+  </si>
+  <si>
+    <t>0 -0.1 mv</t>
+  </si>
+  <si>
+    <t>150k -1.118 V</t>
+  </si>
+  <si>
+    <t>Vi ? Ri ?</t>
+  </si>
+  <si>
+    <t>/BoE</t>
+  </si>
+  <si>
+    <t>Rt</t>
+  </si>
+  <si>
+    <t>Vt</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>It µA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vt = Vi -Ri *It </t>
+  </si>
+  <si>
+    <t>y = kx +m</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>It_n</t>
+  </si>
+  <si>
+    <t>y = -71242x + 1,6652</t>
+  </si>
+  <si>
+    <t>vt =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -71242 * it</t>
+  </si>
+  <si>
+    <t>Ri=71242 ohm</t>
+  </si>
+  <si>
+    <t>70K</t>
   </si>
 </sst>
 </file>
@@ -229,13 +298,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -243,6 +309,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -261,6 +334,1201 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$G$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet6!$F$23:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>9.3999999999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3999999999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5000000000000005E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4520000000000003E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4200000000000013E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3749999999999992E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2449922958397537E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8300000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4533333333333337E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5133333333333331E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.1683168316831681E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5233333333333329E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5299999999999997E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.892E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$G$23:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>9.4000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.127</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.246</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.357</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.446</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7311-4768-BFE2-54660E6548B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="582223344"/>
+        <c:axId val="582220016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="582223344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="582220016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="582220016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="582223344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.3279897200349956"/>
+                  <c:y val="-0.12579906678331876"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-SE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet7!$E$5:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="2">
+                  <c:v>1.0106382978723405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.005531914893617</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0021276595744681</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99734042553191482</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98350981870635679</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93936170212765957</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79290780141843975</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79929078014184396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6562039182641668</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48120567375886519</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.37553191489361698</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30765957446808512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet7!$F$5:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="2">
+                  <c:v>0.90927358585351159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88601426705515929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8627549482568071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81633678287953382</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70330553601929069</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56113734552396266</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44308248769215308</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43856123781774342</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3787802672561037</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32301818547171707</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.29538832512810215</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27830804782477647</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F976-4558-94D5-40A4FE088A9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="398305696"/>
+        <c:axId val="398297376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="398305696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398297376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="398297376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398305696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.15734886264216974"/>
+                  <c:y val="7.2465733449985414E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-SE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet7!$B$42:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.892E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5299999999999997E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5233333333333329E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1683168316831681E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5133333333333331E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4533333333333337E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet7!$C$42:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.446</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.246</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1180000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E035-419D-ACBE-BC05DB6B6657}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="674264688"/>
+        <c:axId val="674258448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="674264688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674258448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="674258448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674264688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -800,8 +2068,128 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -828,8 +2216,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -930,7 +2318,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -962,6 +2350,1554 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -1304,6 +4240,124 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B3A070-3EB6-4D48-B2DF-2DAC6FF1A272}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>42861</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5708023-681A-453E-A7C7-3194115E33A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368F8B38-F2A4-4E49-839B-9F858AD20E69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1522,7 +4576,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{05F35EC6-2F77-422B-9298-54017626D8CE}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{05F35EC6-2F77-422B-9298-54017626D8CE}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:C9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
@@ -1939,8 +4993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F0FC3F-DE5A-4D78-909C-A5291776C0C5}">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44:O49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,20 +5018,20 @@
       <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="7"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
@@ -2034,11 +5088,11 @@
         <f>H5*$C$11</f>
         <v>10925.508819538669</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <f>I5/1000</f>
         <v>10.925508819538669</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <f>J5/1000</f>
         <v>1.0925508819538668E-2</v>
       </c>
@@ -2063,11 +5117,11 @@
         <f t="shared" ref="I6:I17" si="2">H6*$C$11</f>
         <v>83146.1329715061</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f t="shared" ref="J6:K6" si="3">I6/1000</f>
         <v>83.146132971506105</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <f t="shared" si="3"/>
         <v>8.3146132971506109E-2</v>
       </c>
@@ -2101,11 +5155,11 @@
         <f t="shared" si="2"/>
         <v>11804.070556309362</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <f t="shared" ref="J7:K7" si="4">I7/1000</f>
         <v>11.804070556309362</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <f t="shared" si="4"/>
         <v>1.1804070556309363E-2</v>
       </c>
@@ -2148,11 +5202,11 @@
         <f t="shared" si="2"/>
         <v>90426.322930800539</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <f t="shared" ref="J8:K8" si="5">I8/1000</f>
         <v>90.426322930800538</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <f t="shared" si="5"/>
         <v>9.0426322930800537E-2</v>
       </c>
@@ -2187,11 +5241,11 @@
         <f t="shared" si="2"/>
         <v>12677.883310719129</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <f t="shared" ref="J9:K9" si="6">I9/1000</f>
         <v>12.67788331071913</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <f t="shared" si="6"/>
         <v>1.267788331071913E-2</v>
       </c>
@@ -2238,11 +5292,11 @@
         <f t="shared" si="2"/>
         <v>97772.048846675709</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <f t="shared" ref="J10:K10" si="8">I10/1000</f>
         <v>97.772048846675702</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <f t="shared" si="8"/>
         <v>9.7772048846675702E-2</v>
       </c>
@@ -2277,11 +5331,11 @@
         <f t="shared" si="2"/>
         <v>14198.507462686566</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <f t="shared" ref="J11:K11" si="9">I11/1000</f>
         <v>14.198507462686566</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <f t="shared" si="9"/>
         <v>1.4198507462686565E-2</v>
       </c>
@@ -2328,11 +5382,11 @@
         <f t="shared" si="2"/>
         <v>109654.00271370419</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <f t="shared" ref="J12:K12" si="10">I12/1000</f>
         <v>109.65400271370419</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <f t="shared" si="10"/>
         <v>0.10965400271370419</v>
       </c>
@@ -2366,11 +5420,11 @@
         <f t="shared" si="2"/>
         <v>11596.065128900949</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <f t="shared" ref="J13:K13" si="11">I13/1000</f>
         <v>11.59606512890095</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <f t="shared" si="11"/>
         <v>1.159606512890095E-2</v>
       </c>
@@ -2413,11 +5467,11 @@
         <f t="shared" si="2"/>
         <v>712963.77204884659</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <f t="shared" ref="J14:K14" si="12">I14/1000</f>
         <v>712.96377204884664</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <f t="shared" si="12"/>
         <v>0.71296377204884664</v>
       </c>
@@ -2442,11 +5496,11 @@
         <f t="shared" si="2"/>
         <v>35719.945725915873</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <f t="shared" ref="J15:K15" si="13">I15/1000</f>
         <v>35.719945725915871</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <f t="shared" si="13"/>
         <v>3.5719945725915872E-2</v>
       </c>
@@ -2483,16 +5537,16 @@
         <f t="shared" si="2"/>
         <v>414820.7598371777</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <f t="shared" ref="J16:K16" si="14">I16/1000</f>
         <v>414.82075983717772</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <f t="shared" si="14"/>
         <v>0.4148207598371777</v>
       </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
@@ -2507,16 +5561,16 @@
         <f t="shared" si="2"/>
         <v>104968.6567164179</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <f t="shared" ref="J17:K17" si="15">I17/1000</f>
         <v>104.9686567164179</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <f t="shared" si="15"/>
         <v>0.10496865671641789</v>
       </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2613,21 +5667,21 @@
         <v>10</v>
       </c>
       <c r="G35">
-        <f>1/F35</f>
+        <f t="shared" ref="G35:G40" si="16">1/F35</f>
         <v>0.1</v>
       </c>
       <c r="H35">
         <v>0.6</v>
       </c>
       <c r="I35">
-        <f>F35*H35</f>
+        <f t="shared" ref="I35:I40" si="17">F35*H35</f>
         <v>6</v>
       </c>
       <c r="J35">
         <f>I35*3.6</f>
         <v>21.6</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L35" s="7">
         <f>$C$10*G35</f>
         <v>105285.7142857143</v>
       </c>
@@ -2648,7 +5702,7 @@
         <v>21.6</v>
       </c>
       <c r="S35">
-        <f>L35*I35</f>
+        <f t="shared" ref="S35:S40" si="18">L35*I35</f>
         <v>631714.2857142858</v>
       </c>
     </row>
@@ -2664,42 +5718,42 @@
         <v>20</v>
       </c>
       <c r="G36">
-        <f>1/F36</f>
+        <f t="shared" si="16"/>
         <v>0.05</v>
       </c>
       <c r="H36">
         <v>0.6</v>
       </c>
       <c r="I36">
-        <f>F36*H36</f>
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
       <c r="J36">
-        <f t="shared" ref="J36:J40" si="16">I36*3.6</f>
+        <f t="shared" ref="J36:J40" si="19">I36*3.6</f>
         <v>43.2</v>
       </c>
-      <c r="L36" s="8">
-        <f t="shared" ref="L36:L40" si="17">$C$10*G36</f>
+      <c r="L36" s="7">
+        <f t="shared" ref="L36:L40" si="20">$C$10*G36</f>
         <v>52642.857142857152</v>
       </c>
       <c r="N36">
-        <f t="shared" ref="N36:O40" si="18">N$34 /$L36</f>
+        <f t="shared" ref="N36:O40" si="21">N$34 /$L36</f>
         <v>11.999994572591586</v>
       </c>
       <c r="O36">
+        <f t="shared" si="21"/>
+        <v>1200.0000081411124</v>
+      </c>
+      <c r="P36">
+        <f t="shared" ref="P36:P40" si="22">INT(O36)/100</f>
+        <v>12</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" ref="Q36:Q40" si="23">3.6*P36</f>
+        <v>43.2</v>
+      </c>
+      <c r="S36">
         <f t="shared" si="18"/>
-        <v>1200.0000081411124</v>
-      </c>
-      <c r="P36">
-        <f t="shared" ref="P36:P40" si="19">INT(O36)/100</f>
-        <v>12</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" ref="Q36:Q40" si="20">3.6*P36</f>
-        <v>43.2</v>
-      </c>
-      <c r="S36">
-        <f>L36*I36</f>
         <v>631714.2857142858</v>
       </c>
     </row>
@@ -2715,42 +5769,42 @@
         <v>40</v>
       </c>
       <c r="G37">
-        <f>1/F37</f>
+        <f t="shared" si="16"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H37">
         <v>0.6</v>
       </c>
       <c r="I37">
-        <f>F37*H37</f>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="J37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>86.4</v>
       </c>
-      <c r="L37" s="8">
-        <f t="shared" si="17"/>
+      <c r="L37" s="7">
+        <f t="shared" si="20"/>
         <v>26321.428571428576</v>
       </c>
       <c r="N37">
+        <f t="shared" si="21"/>
+        <v>23.999989145183172</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="21"/>
+        <v>2400.0000162822248</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="22"/>
+        <v>24</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="23"/>
+        <v>86.4</v>
+      </c>
+      <c r="S37">
         <f t="shared" si="18"/>
-        <v>23.999989145183172</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="18"/>
-        <v>2400.0000162822248</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="19"/>
-        <v>24</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="20"/>
-        <v>86.4</v>
-      </c>
-      <c r="S37">
-        <f>L37*I37</f>
         <v>631714.2857142858</v>
       </c>
     </row>
@@ -2766,42 +5820,42 @@
         <v>60</v>
       </c>
       <c r="G38">
-        <f>1/F38</f>
+        <f t="shared" si="16"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="H38">
         <v>0.6</v>
       </c>
       <c r="I38">
-        <f>F38*H38</f>
+        <f t="shared" si="17"/>
         <v>36</v>
       </c>
       <c r="J38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>129.6</v>
       </c>
-      <c r="L38" s="8">
-        <f t="shared" si="17"/>
+      <c r="L38" s="7">
+        <f t="shared" si="20"/>
         <v>17547.61904761905</v>
       </c>
       <c r="N38">
+        <f t="shared" si="21"/>
+        <v>35.999983717774761</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="21"/>
+        <v>3600.0000244233374</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="22"/>
+        <v>36</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="23"/>
+        <v>129.6</v>
+      </c>
+      <c r="S38">
         <f t="shared" si="18"/>
-        <v>35.999983717774761</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="18"/>
-        <v>3600.0000244233374</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="19"/>
-        <v>36</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="20"/>
-        <v>129.6</v>
-      </c>
-      <c r="S38">
-        <f>L38*I38</f>
         <v>631714.2857142858</v>
       </c>
     </row>
@@ -2810,42 +5864,42 @@
         <v>80</v>
       </c>
       <c r="G39">
-        <f>1/F39</f>
+        <f t="shared" si="16"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="H39">
         <v>0.6</v>
       </c>
       <c r="I39">
-        <f>F39*H39</f>
+        <f t="shared" si="17"/>
         <v>48</v>
       </c>
       <c r="J39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>172.8</v>
       </c>
-      <c r="L39" s="8">
-        <f t="shared" si="17"/>
+      <c r="L39" s="7">
+        <f t="shared" si="20"/>
         <v>13160.714285714288</v>
       </c>
       <c r="N39">
+        <f t="shared" si="21"/>
+        <v>47.999978290366343</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="21"/>
+        <v>4800.0000325644496</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="22"/>
+        <v>48</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="23"/>
+        <v>172.8</v>
+      </c>
+      <c r="S39">
         <f t="shared" si="18"/>
-        <v>47.999978290366343</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="18"/>
-        <v>4800.0000325644496</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="19"/>
-        <v>48</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="20"/>
-        <v>172.8</v>
-      </c>
-      <c r="S39">
-        <f>L39*I39</f>
         <v>631714.2857142858</v>
       </c>
     </row>
@@ -2854,42 +5908,42 @@
         <v>100</v>
       </c>
       <c r="G40">
-        <f>1/F40</f>
+        <f t="shared" si="16"/>
         <v>0.01</v>
       </c>
       <c r="H40">
         <v>0.6</v>
       </c>
       <c r="I40">
-        <f>F40*H40</f>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
       <c r="J40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>216</v>
       </c>
-      <c r="L40" s="8">
-        <f t="shared" si="17"/>
+      <c r="L40" s="7">
+        <f t="shared" si="20"/>
         <v>10528.571428571429</v>
       </c>
       <c r="N40">
+        <f t="shared" si="21"/>
+        <v>59.999972862957932</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="21"/>
+        <v>6000.0000407055622</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="22"/>
+        <v>60</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="23"/>
+        <v>216</v>
+      </c>
+      <c r="S40">
         <f t="shared" si="18"/>
-        <v>59.999972862957932</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="18"/>
-        <v>6000.0000407055622</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="19"/>
-        <v>60</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="20"/>
-        <v>216</v>
-      </c>
-      <c r="S40">
-        <f>L40*I40</f>
         <v>631714.2857142858</v>
       </c>
     </row>
@@ -2935,21 +5989,21 @@
         <v>10</v>
       </c>
       <c r="G44">
-        <f>1/F44</f>
+        <f t="shared" ref="G44:G49" si="24">1/F44</f>
         <v>0.1</v>
       </c>
       <c r="H44">
         <v>0.6</v>
       </c>
       <c r="I44">
-        <f>F44*H44</f>
+        <f t="shared" ref="I44:I49" si="25">F44*H44</f>
         <v>6</v>
       </c>
       <c r="J44">
         <f>I44*3.6</f>
         <v>21.6</v>
       </c>
-      <c r="L44" s="8">
+      <c r="L44" s="7">
         <f>$C$10*G44</f>
         <v>105285.7142857143</v>
       </c>
@@ -2967,26 +6021,26 @@
         <v>20</v>
       </c>
       <c r="G45">
-        <f>1/F45</f>
+        <f t="shared" si="24"/>
         <v>0.05</v>
       </c>
       <c r="H45">
         <v>0.6</v>
       </c>
       <c r="I45">
-        <f>F45*H45</f>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="J45">
-        <f t="shared" ref="J45:J49" si="21">I45*3.6</f>
+        <f t="shared" ref="J45:J49" si="26">I45*3.6</f>
         <v>43.2</v>
       </c>
-      <c r="L45" s="8">
-        <f t="shared" ref="L45:L49" si="22">$C$10*G45</f>
+      <c r="L45" s="7">
+        <f t="shared" ref="L45:L49" si="27">$C$10*G45</f>
         <v>52642.857142857152</v>
       </c>
       <c r="O45">
-        <f t="shared" ref="O45:O49" si="23">INT(O$43/L45)/100</f>
+        <f t="shared" ref="O45:O49" si="28">INT(O$43/L45)/100</f>
         <v>43.19</v>
       </c>
     </row>
@@ -2995,26 +6049,26 @@
         <v>40</v>
       </c>
       <c r="G46">
-        <f>1/F46</f>
+        <f t="shared" si="24"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H46">
         <v>0.6</v>
       </c>
       <c r="I46">
-        <f>F46*H46</f>
+        <f t="shared" si="25"/>
         <v>24</v>
       </c>
       <c r="J46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>86.4</v>
       </c>
-      <c r="L46" s="8">
-        <f t="shared" si="22"/>
+      <c r="L46" s="7">
+        <f t="shared" si="27"/>
         <v>26321.428571428576</v>
       </c>
       <c r="O46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>86.39</v>
       </c>
     </row>
@@ -3027,26 +6081,26 @@
         <v>60</v>
       </c>
       <c r="G47">
-        <f>1/F47</f>
+        <f t="shared" si="24"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="H47">
         <v>0.6</v>
       </c>
       <c r="I47">
-        <f>F47*H47</f>
+        <f t="shared" si="25"/>
         <v>36</v>
       </c>
       <c r="J47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>129.6</v>
       </c>
-      <c r="L47" s="8">
-        <f t="shared" si="22"/>
+      <c r="L47" s="7">
+        <f t="shared" si="27"/>
         <v>17547.61904761905</v>
       </c>
       <c r="O47">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>129.59</v>
       </c>
     </row>
@@ -3058,26 +6112,26 @@
         <v>80</v>
       </c>
       <c r="G48">
-        <f>1/F48</f>
+        <f t="shared" si="24"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="H48">
         <v>0.6</v>
       </c>
       <c r="I48">
-        <f>F48*H48</f>
+        <f t="shared" si="25"/>
         <v>48</v>
       </c>
       <c r="J48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>172.8</v>
       </c>
-      <c r="L48" s="8">
-        <f t="shared" si="22"/>
+      <c r="L48" s="7">
+        <f t="shared" si="27"/>
         <v>13160.714285714288</v>
       </c>
       <c r="O48">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>172.79</v>
       </c>
     </row>
@@ -3090,26 +6144,26 @@
         <v>100</v>
       </c>
       <c r="G49">
-        <f>1/F49</f>
+        <f t="shared" si="24"/>
         <v>0.01</v>
       </c>
       <c r="H49">
         <v>0.6</v>
       </c>
       <c r="I49">
-        <f>F49*H49</f>
+        <f t="shared" si="25"/>
         <v>60</v>
       </c>
       <c r="J49">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>216</v>
       </c>
-      <c r="L49" s="8">
-        <f t="shared" si="22"/>
+      <c r="L49" s="7">
+        <f t="shared" si="27"/>
         <v>10528.571428571429</v>
       </c>
       <c r="O49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>215.99</v>
       </c>
     </row>
@@ -3129,6 +6183,995 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787509D4-8F11-4FA5-92CA-65E55090F2E3}">
+  <dimension ref="B3:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>27529406</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C4">
+        <v>27542460</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C5">
+        <v>27549644</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="C6">
+        <v>27573153</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C7">
+        <v>27713567</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C8">
+        <v>27726519</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C9">
+        <v>27734024</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C10">
+        <v>27757850</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C11">
+        <v>27903636</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C12">
+        <v>27915956</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C13">
+        <v>27923934</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C14">
+        <v>27948173</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>28118690</v>
+      </c>
+      <c r="H15">
+        <v>227417142</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C16">
+        <v>28139214</v>
+      </c>
+      <c r="H16">
+        <f>C16-C14</f>
+        <v>191041</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C17">
+        <v>27370811</v>
+      </c>
+      <c r="H17">
+        <f>INT(H15/H16)/100</f>
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C18">
+        <v>27393814</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f>E19*3.6</f>
+        <v>1188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B96623D-FF22-441A-ADB1-778F8D735941}">
+  <dimension ref="B4:G45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1E-4</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1000</v>
+      </c>
+      <c r="C16">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="D16">
+        <f>C16/B16</f>
+        <v>9.3999999999999998E-6</v>
+      </c>
+      <c r="F16">
+        <f>D16*1000000</f>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>10000</v>
+      </c>
+      <c r="C17">
+        <v>9.4E-2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:D18" si="0">C17/B17</f>
+        <v>9.3999999999999998E-6</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F18" si="1">D17*1000000</f>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>150000</v>
+      </c>
+      <c r="C18">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>7.4533333333333337E-6</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>7.453333333333334</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>9.3999999999999998E-6</v>
+      </c>
+      <c r="G23">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>9.3999999999999998E-6</v>
+      </c>
+      <c r="G24">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>9.5000000000000005E-6</v>
+      </c>
+      <c r="G25">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>9.4520000000000003E-6</v>
+      </c>
+      <c r="G26">
+        <v>0.23630000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>9.4200000000000013E-6</v>
+      </c>
+      <c r="G27">
+        <v>0.28260000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>500000</v>
+      </c>
+      <c r="C28">
+        <v>1.446</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:D37" si="2">C28/B28</f>
+        <v>2.892E-6</v>
+      </c>
+      <c r="F28">
+        <v>9.3749999999999992E-6</v>
+      </c>
+      <c r="G28">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>400000</v>
+      </c>
+      <c r="C29">
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>3.5299999999999997E-6</v>
+      </c>
+      <c r="F29">
+        <v>9.2449922958397537E-6</v>
+      </c>
+      <c r="G29">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>300000</v>
+      </c>
+      <c r="C30">
+        <v>1.357</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>4.5233333333333329E-6</v>
+      </c>
+      <c r="F30">
+        <v>8.8300000000000002E-6</v>
+      </c>
+      <c r="G30">
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>202000</v>
+      </c>
+      <c r="C31">
+        <v>1.246</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>6.1683168316831681E-6</v>
+      </c>
+      <c r="F31">
+        <v>7.4533333333333337E-6</v>
+      </c>
+      <c r="G31">
+        <v>1.1180000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>150000</v>
+      </c>
+      <c r="C32">
+        <v>1.127</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>7.5133333333333331E-6</v>
+      </c>
+      <c r="F32">
+        <v>7.5133333333333331E-6</v>
+      </c>
+      <c r="G32">
+        <v>1.127</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>6.1683168316831681E-6</v>
+      </c>
+      <c r="G33">
+        <v>1.246</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>20000</v>
+      </c>
+      <c r="C34">
+        <v>0.19</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>9.5000000000000005E-6</v>
+      </c>
+      <c r="F34">
+        <v>4.5233333333333329E-6</v>
+      </c>
+      <c r="G34">
+        <v>1.357</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>25000</v>
+      </c>
+      <c r="C35">
+        <v>0.23630000000000001</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>9.4520000000000003E-6</v>
+      </c>
+      <c r="F35">
+        <v>3.5299999999999997E-6</v>
+      </c>
+      <c r="G35">
+        <v>1.4119999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>30000</v>
+      </c>
+      <c r="C36">
+        <v>0.28260000000000002</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>9.4200000000000013E-6</v>
+      </c>
+      <c r="F36">
+        <v>2.892E-6</v>
+      </c>
+      <c r="G36">
+        <v>1.446</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>40000</v>
+      </c>
+      <c r="C37">
+        <v>0.375</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>9.3749999999999992E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>100000</v>
+      </c>
+      <c r="C40">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40:D42" si="3">C40/B40</f>
+        <v>8.8300000000000002E-6</v>
+      </c>
+      <c r="F40">
+        <v>9.5000000000000005E-6</v>
+      </c>
+      <c r="G40">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>9.4520000000000003E-6</v>
+      </c>
+      <c r="G41">
+        <v>0.23630000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>64900</v>
+      </c>
+      <c r="C42">
+        <v>0.6</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="3"/>
+        <v>9.2449922958397537E-6</v>
+      </c>
+      <c r="F42">
+        <v>9.4200000000000013E-6</v>
+      </c>
+      <c r="G42">
+        <v>0.28260000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>9.3749999999999992E-6</v>
+      </c>
+      <c r="G43">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>9.2449922958397537E-6</v>
+      </c>
+      <c r="G45">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F33:G37">
+    <sortCondition ref="G33:G37"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D73B2AD-BB0B-486E-B80B-0CC1B015622A}">
+  <dimension ref="A4:G57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>9.3999999999999998E-6</v>
+      </c>
+      <c r="C5">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>9.3999999999999998E-6</v>
+      </c>
+      <c r="C6">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>9.5000000000000005E-6</v>
+      </c>
+      <c r="C7">
+        <v>0.19</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E6:E18" si="0">B7/B$5</f>
+        <v>1.0106382978723405</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F6:F18" si="1">(2-C7)/(2-C$5)</f>
+        <v>0.90927358585351159</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>9.4520000000000003E-6</v>
+      </c>
+      <c r="C8">
+        <v>0.23630000000000001</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.005531914893617</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.88601426705515929</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>9.4200000000000013E-6</v>
+      </c>
+      <c r="C9">
+        <v>0.28260000000000002</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1.0021276595744681</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.8627549482568071</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>9.3749999999999992E-6</v>
+      </c>
+      <c r="C10">
+        <v>0.375</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.99734042553191482</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.81633678287953382</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>9.2449922958397537E-6</v>
+      </c>
+      <c r="C11">
+        <v>0.6</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.98350981870635679</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.70330553601929069</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>8.8300000000000002E-6</v>
+      </c>
+      <c r="C12">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.93936170212765957</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.56113734552396266</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>7.4533333333333337E-6</v>
+      </c>
+      <c r="C13">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.79290780141843975</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.44308248769215308</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>7.5133333333333331E-6</v>
+      </c>
+      <c r="C14">
+        <v>1.127</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.79929078014184396</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.43856123781774342</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>6.1683168316831681E-6</v>
+      </c>
+      <c r="C15">
+        <v>1.246</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.6562039182641668</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.3787802672561037</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>4.5233333333333329E-6</v>
+      </c>
+      <c r="C16">
+        <v>1.357</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.48120567375886519</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.32301818547171707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>3.5299999999999997E-6</v>
+      </c>
+      <c r="C17">
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.37553191489361698</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.29538832512810215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2.892E-6</v>
+      </c>
+      <c r="C18">
+        <v>1.446</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.30765957446808512</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.27830804782477647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1.756</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27">
+        <v>1.6652</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>2.892E-6</v>
+      </c>
+      <c r="C42">
+        <v>1.446</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>3.5299999999999997E-6</v>
+      </c>
+      <c r="C43">
+        <v>1.4119999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>4.5233333333333329E-6</v>
+      </c>
+      <c r="C44">
+        <v>1.357</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>6.1683168316831681E-6</v>
+      </c>
+      <c r="C45">
+        <v>1.246</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>7.5133333333333331E-6</v>
+      </c>
+      <c r="C46">
+        <v>1.127</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>7.4533333333333337E-6</v>
+      </c>
+      <c r="C47">
+        <v>1.1180000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>8.8300000000000002E-6</v>
+      </c>
+      <c r="C48">
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>9.2449922958397537E-6</v>
+      </c>
+      <c r="C49">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>9.3749999999999992E-6</v>
+      </c>
+      <c r="C50">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>9.4200000000000013E-6</v>
+      </c>
+      <c r="C51">
+        <v>0.28260000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>9.4520000000000003E-6</v>
+      </c>
+      <c r="C52">
+        <v>0.23630000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>9.5000000000000005E-6</v>
+      </c>
+      <c r="C53">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>9.3999999999999998E-6</v>
+      </c>
+      <c r="C54">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>9.3999999999999998E-6</v>
+      </c>
+      <c r="C55">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B42:C55">
+    <sortCondition descending="1" ref="C42:C55"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF3B26C-6B3B-4B7D-AA15-714311842B53}">
   <dimension ref="A3:C9"/>
   <sheetViews>
@@ -3145,15 +7188,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
@@ -3164,57 +7207,57 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>7472753</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>83.146132971506105</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>10.925508819538669</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>7572722</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>90.426322930800538</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>11.804070556309362</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>7681276</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>97.772048846675702</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>12.67788331071913</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7799165</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>109.65400271370419</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>14.198507462686566</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>95.24962686567163</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>12.401492537313432</v>
       </c>
     </row>

--- a/biltema-count.xlsx
+++ b/biltema-count.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boe\Documents\BoE\git\ewarm\lpc2138-sk\arm\9.10.2\NXP\LPC213x\IAR-P213x\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A413AAFE-1B27-4A38-B1DE-C0D5850860C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE71219F-9BD7-4308-BFD7-5388953476E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6B61B452-E600-4EBA-B8C4-BD7C91B691E2}"/>
+    <workbookView xWindow="900" yWindow="885" windowWidth="21600" windowHeight="11385" xr2:uid="{6B61B452-E600-4EBA-B8C4-BD7C91B691E2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Distance" sheetId="10" r:id="rId1"/>
+    <sheet name="Speed" sheetId="9" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
   <si>
     <t>lpc2138-biltema-teraterm</t>
   </si>
@@ -235,25 +237,85 @@
     <t>y = kx +m</t>
   </si>
   <si>
-    <t>exp</t>
-  </si>
-  <si>
-    <t>It_n</t>
-  </si>
-  <si>
-    <t>y = -71242x + 1,6652</t>
-  </si>
-  <si>
-    <t>vt =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -71242 * it</t>
-  </si>
-  <si>
-    <t>Ri=71242 ohm</t>
-  </si>
-  <si>
-    <t>70K</t>
+    <t>28 bits needed</t>
+  </si>
+  <si>
+    <t>km / h</t>
+  </si>
+  <si>
+    <t>distance per pulse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ticks per pulse </t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>speed = 0.6 * / (N / f)</t>
+  </si>
+  <si>
+    <t>speed = 0.6 * f / N</t>
+  </si>
+  <si>
+    <t>km/h / m/s</t>
+  </si>
+  <si>
+    <t>multiplier</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>dpp</t>
+  </si>
+  <si>
+    <t>kmh_ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>f * dpp</t>
+  </si>
+  <si>
+    <t>f * dpp * kmh_ms</t>
+  </si>
+  <si>
+    <t>f * dpp / t_p_p</t>
+  </si>
+  <si>
+    <t>f * dpp * kmh_ms / t_p_p</t>
+  </si>
+  <si>
+    <t>f * dpp * kmh_ms * 100</t>
+  </si>
+  <si>
+    <t>f * dpp * kmh_ms * 100/ t_p_p</t>
+  </si>
+  <si>
+    <t>0.01 km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># bits </t>
+  </si>
+  <si>
+    <t>number of pulses</t>
+  </si>
+  <si>
+    <t>N * dpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ticks </t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>N/1000 * dpp</t>
   </si>
 </sst>
 </file>
@@ -278,15 +340,27 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -294,11 +368,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -316,6 +470,53 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,817 +919,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-SE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet7!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Vt</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.3279897200349956"/>
-                  <c:y val="-0.12579906678331876"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-SE"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet7!$E$5:$E$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="2">
-                  <c:v>1.0106382978723405</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.005531914893617</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0021276595744681</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.99734042553191482</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.98350981870635679</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.93936170212765957</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.79290780141843975</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.79929078014184396</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.6562039182641668</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.48120567375886519</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.37553191489361698</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.30765957446808512</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet7!$F$5:$F$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="2">
-                  <c:v>0.90927358585351159</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.88601426705515929</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8627549482568071</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.81633678287953382</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.70330553601929069</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.56113734552396266</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.44308248769215308</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.43856123781774342</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.3787802672561037</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.32301818547171707</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.29538832512810215</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.27830804782477647</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F976-4558-94D5-40A4FE088A9D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="398305696"/>
-        <c:axId val="398297376"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="398305696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="398297376"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="398297376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="398305696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-SE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-SE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.15734886264216974"/>
-                  <c:y val="7.2465733449985414E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-SE"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet7!$B$42:$B$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.892E-6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5299999999999997E-6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.5233333333333329E-6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.1683168316831681E-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.5133333333333331E-6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.4533333333333337E-6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet7!$C$42:$C$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.446</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4119999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.357</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.246</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.127</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1180000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E035-419D-ACBE-BC05DB6B6657}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="674264688"/>
-        <c:axId val="674258448"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="674264688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="674258448"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="674258448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="674264688"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-SE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2108,86 +1498,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2705,1038 +2015,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4281,83 +2559,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>42861</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5708023-681A-453E-A7C7-3194115E33A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368F8B38-F2A4-4E49-839B-9F858AD20E69}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4990,16 +3191,577 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F0FC3F-DE5A-4D78-909C-A5291776C0C5}">
-  <dimension ref="A1:S50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6623EDA6-AF1B-4B7D-B9EF-0A62D37B7699}">
+  <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="8"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="15"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="F8" s="16">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="H8" s="16">
+        <f>$D$5*$D$4*$D$6*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9">
+        <f>ROUNDUP(LOG(D8,2),0)</f>
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <f>ROUNDUP(LOG(F8,2),0)</f>
+        <v>-11</v>
+      </c>
+      <c r="H9" t="e">
+        <f>ROUNDUP(LOG(H8,2),0)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="27"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="27"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="30">
+        <v>1</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22">
+        <f>$D$8*$B13</f>
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22">
+        <f>$F$8*$B13</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="31">
+        <f>$H$8/$B13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="30">
+        <v>100</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22">
+        <f t="shared" ref="D14:D17" si="0">$D$8*$B14</f>
+        <v>60</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22">
+        <f t="shared" ref="F14:F17" si="1">$F$8*$B14</f>
+        <v>0.06</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="31">
+        <f t="shared" ref="H14:H17" si="2">$H$8/$B14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="30">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="30">
+        <v>10000</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999991</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="32">
+        <v>65535</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="22">
+        <f t="shared" si="0"/>
+        <v>39321</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="22">
+        <f t="shared" si="1"/>
+        <v>39.320999999999998</v>
+      </c>
+      <c r="G17" s="34"/>
+      <c r="H17" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBD9275-8E28-4C5A-AF74-EB5752901F53}">
+  <dimension ref="A2:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="8"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="12">
+        <v>14740000</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <f>D2/D3</f>
+        <v>1052857.142857143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="16">
+        <f>$D$4*$D$5</f>
+        <v>631714.2857142858</v>
+      </c>
+      <c r="F8" s="16">
+        <f>$D$5*$D$4*$D$6</f>
+        <v>2274171.4285714291</v>
+      </c>
+      <c r="H8" s="16">
+        <f>$D$5*$D$4*$D$6*100</f>
+        <v>227417142.85714293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9">
+        <f>ROUNDUP(LOG(D8,2),0)</f>
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <f>ROUNDUP(LOG(F8,2),0)</f>
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <f>ROUNDUP(LOG(H8,2),0)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="27"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="27"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="30">
+        <v>1000000</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22">
+        <f>$D$8/$B13</f>
+        <v>0.63171428571428578</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22">
+        <f>$F$8/$B13</f>
+        <v>2.274171428571429</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="31">
+        <f>$H$8/$B13</f>
+        <v>227.41714285714292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="30">
+        <v>500000</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22">
+        <f t="shared" ref="D14:D17" si="0">$D$8/$B14</f>
+        <v>1.2634285714285716</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22">
+        <f t="shared" ref="F14:H17" si="1">$F$8/$B14</f>
+        <v>4.5483428571428579</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="31">
+        <f t="shared" ref="H14:H17" si="2">$H$8/$B14</f>
+        <v>454.83428571428584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="30">
+        <v>100000</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22">
+        <f t="shared" si="0"/>
+        <v>6.3171428571428576</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22">
+        <f t="shared" si="1"/>
+        <v>22.741714285714291</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="31">
+        <f t="shared" si="2"/>
+        <v>2274.1714285714293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="30">
+        <v>50000</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22">
+        <f t="shared" si="0"/>
+        <v>12.634285714285715</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22">
+        <f t="shared" si="1"/>
+        <v>45.483428571428583</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="31">
+        <f t="shared" si="2"/>
+        <v>4548.3428571428585</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="32">
+        <v>10000</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34">
+        <f t="shared" si="0"/>
+        <v>63.171428571428578</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34">
+        <f t="shared" si="1"/>
+        <v>227.41714285714292</v>
+      </c>
+      <c r="G17" s="34"/>
+      <c r="H17" s="35">
+        <f t="shared" si="2"/>
+        <v>22741.714285714294</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F0FC3F-DE5A-4D78-909C-A5291776C0C5}">
+  <dimension ref="A1:S52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="78.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -5018,12 +3780,12 @@
       <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
         <v>33</v>
@@ -6171,6 +4933,21 @@
       <c r="A50">
         <f>INT(A49)</f>
         <v>227417142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f>LOG(A50,2)</f>
+        <v>27.760765763312818</v>
+      </c>
+      <c r="B51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f>DEC2HEX(A50,8)</f>
+        <v>0D8E1C36</v>
       </c>
     </row>
   </sheetData>
@@ -6182,7 +4959,187 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43748CBE-D409-494C-B676-FD84B2786DF8}">
+  <dimension ref="B2:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="12">
+        <v>14740000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <f>D2/D3</f>
+        <v>1052857.142857143</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8">
+        <v>1000000</v>
+      </c>
+      <c r="F8">
+        <v>500000</v>
+      </c>
+      <c r="G8">
+        <v>100000</v>
+      </c>
+      <c r="H8">
+        <v>50000</v>
+      </c>
+      <c r="I8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <f>$D$6*$D$4/E$8</f>
+        <v>0.63171428571428578</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:I11" si="0">$D$6*$D$4/F$8</f>
+        <v>1.2634285714285716</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>6.3171428571428576</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>12.634285714285715</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>63.171428571428578</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <f>$D$14*$D$6*$D$4/E$8</f>
+        <v>2.274171428571429</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:I12" si="1">$D$14*$D$6*$D$4/F$8</f>
+        <v>4.5483428571428579</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>22.741714285714291</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>45.483428571428583</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>227.41714285714292</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16">
+        <f>D9*D14</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787509D4-8F11-4FA5-92CA-65E55090F2E3}">
   <dimension ref="B3:H20"/>
   <sheetViews>
@@ -6359,11 +5316,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B96623D-FF22-441A-ADB1-778F8D735941}">
   <dimension ref="B4:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22:G36"/>
     </sheetView>
   </sheetViews>
@@ -6771,407 +5728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D73B2AD-BB0B-486E-B80B-0CC1B015622A}">
-  <dimension ref="A4:G57"/>
-  <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>9.3999999999999998E-6</v>
-      </c>
-      <c r="C5">
-        <v>9.4000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>9.3999999999999998E-6</v>
-      </c>
-      <c r="C6">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>9.5000000000000005E-6</v>
-      </c>
-      <c r="C7">
-        <v>0.19</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ref="E6:E18" si="0">B7/B$5</f>
-        <v>1.0106382978723405</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ref="F6:F18" si="1">(2-C7)/(2-C$5)</f>
-        <v>0.90927358585351159</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>9.4520000000000003E-6</v>
-      </c>
-      <c r="C8">
-        <v>0.23630000000000001</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>1.005531914893617</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>0.88601426705515929</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>9.4200000000000013E-6</v>
-      </c>
-      <c r="C9">
-        <v>0.28260000000000002</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>1.0021276595744681</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>0.8627549482568071</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>9.3749999999999992E-6</v>
-      </c>
-      <c r="C10">
-        <v>0.375</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0.99734042553191482</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>0.81633678287953382</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>9.2449922958397537E-6</v>
-      </c>
-      <c r="C11">
-        <v>0.6</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0.98350981870635679</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>0.70330553601929069</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>8.8300000000000002E-6</v>
-      </c>
-      <c r="C12">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0.93936170212765957</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>0.56113734552396266</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>7.4533333333333337E-6</v>
-      </c>
-      <c r="C13">
-        <v>1.1180000000000001</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0.79290780141843975</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>0.44308248769215308</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>7.5133333333333331E-6</v>
-      </c>
-      <c r="C14">
-        <v>1.127</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0.79929078014184396</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>0.43856123781774342</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>6.1683168316831681E-6</v>
-      </c>
-      <c r="C15">
-        <v>1.246</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0.6562039182641668</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>0.3787802672561037</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>4.5233333333333329E-6</v>
-      </c>
-      <c r="C16">
-        <v>1.357</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>0.48120567375886519</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>0.32301818547171707</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>3.5299999999999997E-6</v>
-      </c>
-      <c r="C17">
-        <v>1.4119999999999999</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0.37553191489361698</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>0.29538832512810215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>2.892E-6</v>
-      </c>
-      <c r="C18">
-        <v>1.446</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>0.30765957446808512</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>0.27830804782477647</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>1.756</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27">
-        <v>1.6652</v>
-      </c>
-      <c r="C27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>2.892E-6</v>
-      </c>
-      <c r="C42">
-        <v>1.446</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>3.5299999999999997E-6</v>
-      </c>
-      <c r="C43">
-        <v>1.4119999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>4.5233333333333329E-6</v>
-      </c>
-      <c r="C44">
-        <v>1.357</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>6.1683168316831681E-6</v>
-      </c>
-      <c r="C45">
-        <v>1.246</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>7.5133333333333331E-6</v>
-      </c>
-      <c r="C46">
-        <v>1.127</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>7.4533333333333337E-6</v>
-      </c>
-      <c r="C47">
-        <v>1.1180000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>8.8300000000000002E-6</v>
-      </c>
-      <c r="C48">
-        <v>0.88300000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>9.2449922958397537E-6</v>
-      </c>
-      <c r="C49">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>9.3749999999999992E-6</v>
-      </c>
-      <c r="C50">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>9.4200000000000013E-6</v>
-      </c>
-      <c r="C51">
-        <v>0.28260000000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>9.4520000000000003E-6</v>
-      </c>
-      <c r="C52">
-        <v>0.23630000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>9.5000000000000005E-6</v>
-      </c>
-      <c r="C53">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>9.3999999999999998E-6</v>
-      </c>
-      <c r="C54">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>9.3999999999999998E-6</v>
-      </c>
-      <c r="C55">
-        <v>9.4000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B42:C55">
-    <sortCondition descending="1" ref="C42:C55"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF3B26C-6B3B-4B7D-AA15-714311842B53}">
   <dimension ref="A3:C9"/>
   <sheetViews>

--- a/biltema-count.xlsx
+++ b/biltema-count.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boe\Documents\BoE\git\ewarm\lpc2138-sk\arm\9.10.2\NXP\LPC213x\IAR-P213x\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE71219F-9BD7-4308-BFD7-5388953476E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1163C8-B00A-4404-8A90-947D93CDDE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="885" windowWidth="21600" windowHeight="11385" xr2:uid="{6B61B452-E600-4EBA-B8C4-BD7C91B691E2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{6B61B452-E600-4EBA-B8C4-BD7C91B691E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Distance" sheetId="10" r:id="rId1"/>
-    <sheet name="Speed" sheetId="9" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
+    <sheet name="Yaay" sheetId="11" r:id="rId2"/>
+    <sheet name="prime factors" sheetId="12" r:id="rId3"/>
+    <sheet name="Speed" sheetId="9" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="110">
   <si>
     <t>lpc2138-biltema-teraterm</t>
   </si>
@@ -316,6 +318,54 @@
   </si>
   <si>
     <t>N/1000 * dpp</t>
+  </si>
+  <si>
+    <t>fusk-sensor-frekvens</t>
+  </si>
+  <si>
+    <t>hastighetsmätaren visar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hastighet </t>
+  </si>
+  <si>
+    <t>meter per sensor-puls</t>
+  </si>
+  <si>
+    <t>meter per biltemasensorpuls</t>
+  </si>
+  <si>
+    <t>en kardanaxelmagnet</t>
+  </si>
+  <si>
+    <t>två kardanaxelmagneter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meter per sensorpuls / meter per sensorpuls </t>
+  </si>
+  <si>
+    <t>Input interpretation</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Divisors</t>
+  </si>
+  <si>
+    <t>https://www.wolframalpha.com/input/?i=prime+factors+54</t>
+  </si>
+  <si>
+    <t>hastmätare</t>
+  </si>
+  <si>
+    <t>pulser</t>
+  </si>
+  <si>
+    <t>längd</t>
+  </si>
+  <si>
+    <t>biltema pulser</t>
   </si>
 </sst>
 </file>
@@ -325,7 +375,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ _k_r"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,8 +389,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +414,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -470,9 +534,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,6 +578,56 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2519,6 +2630,377 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="factor | 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B5D59CA-C63C-4916-A55A-F831719F0E38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="866775"/>
+          <a:ext cx="1085850" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="2×3^3 (4 prime factors, 2 distinct)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CAC964-C4F2-41BD-951E-69E8127B60A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="1733550"/>
+          <a:ext cx="2105025" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="1 | 2 | 3 | 6 | 9 | 18 | 27 | 54 (8 divisors)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8031019A-6CE3-4154-9A1B-83A618603C16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="2600325"/>
+          <a:ext cx="3267075" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="factor | 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0E7ED8-FBD3-4ECD-8561-0F06E1E6ADFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6096000" y="866775"/>
+          <a:ext cx="1076325" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="3^3 (3 prime factors, 1 distinct)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C09ECEF2-A8A1-4D51-858A-E6BA5DCCA5A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6096000" y="1733550"/>
+          <a:ext cx="1885950" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="1 | 3 | 9 | 27 (4 divisors)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C4B37E-EDE2-407F-A254-4476225AB038}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6096000" y="2600325"/>
+          <a:ext cx="1857375" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -2558,7 +3040,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3194,7 +3676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6623EDA6-AF1B-4B7D-B9EF-0A62D37B7699}">
   <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -3211,25 +3693,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="15"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="14"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
+      <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D5">
@@ -3240,49 +3722,49 @@
       <c r="A6" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="16">
+      <c r="C8" s="12"/>
+      <c r="D8" s="15">
         <v>0.6</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <f>$D$5*$D$4*$D$6*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="12"/>
       <c r="D9">
         <f>ROUNDUP(LOG(D8,2),0)</f>
         <v>-1</v>
@@ -3297,142 +3779,142 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25" t="s">
+      <c r="G10" s="24"/>
+      <c r="H10" s="24" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="27"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="28" t="s">
+      <c r="G11" s="17"/>
+      <c r="H11" s="27" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="29"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="30">
+      <c r="B13" s="29">
         <v>1</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22">
+      <c r="C13" s="20"/>
+      <c r="D13" s="21">
         <f>$D$8*$B13</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22">
+      <c r="E13" s="21"/>
+      <c r="F13" s="21">
         <f>$F$8*$B13</f>
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="31">
+      <c r="G13" s="21"/>
+      <c r="H13" s="30">
         <f>$H$8/$B13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="30">
+      <c r="B14" s="29">
         <v>100</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21">
         <f t="shared" ref="D14:D17" si="0">$D$8*$B14</f>
         <v>60</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21">
         <f t="shared" ref="F14:F17" si="1">$F$8*$B14</f>
         <v>0.06</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="31">
+      <c r="G14" s="21"/>
+      <c r="H14" s="30">
         <f t="shared" ref="H14:H17" si="2">$H$8/$B14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="30">
+      <c r="B15" s="29">
         <v>1000</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22">
+      <c r="C15" s="20"/>
+      <c r="D15" s="21">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22">
+      <c r="E15" s="21"/>
+      <c r="F15" s="21">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="31">
+      <c r="G15" s="21"/>
+      <c r="H15" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="30">
+      <c r="B16" s="29">
         <v>10000</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22">
+      <c r="C16" s="20"/>
+      <c r="D16" s="21">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22">
+      <c r="E16" s="21"/>
+      <c r="F16" s="21">
         <f t="shared" si="1"/>
         <v>5.9999999999999991</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="31">
+      <c r="G16" s="21"/>
+      <c r="H16" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="32">
+      <c r="B17" s="31">
         <v>65535</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="22">
+      <c r="C17" s="32"/>
+      <c r="D17" s="21">
         <f t="shared" si="0"/>
         <v>39321</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="22">
+      <c r="E17" s="33"/>
+      <c r="F17" s="21">
         <f t="shared" si="1"/>
         <v>39.320999999999998</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35">
+      <c r="G17" s="33"/>
+      <c r="H17" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3445,7 +3927,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
-      <c r="C20" s="13"/>
+      <c r="C20" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3454,6 +3936,335 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B5EF3D-4DD2-468F-9D9A-7D67B084CF0A}">
+  <dimension ref="B2:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="50">
+        <v>25</v>
+      </c>
+      <c r="C5" s="51">
+        <v>10</v>
+      </c>
+      <c r="D5" s="51">
+        <f>C5/3.6</f>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="E5" s="52">
+        <f>D5/B5</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G5" s="36"/>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="53">
+        <v>50</v>
+      </c>
+      <c r="C6" s="54">
+        <v>20</v>
+      </c>
+      <c r="D6" s="54">
+        <f>C6/3.6</f>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E6" s="55">
+        <f>D6/B6</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G6" s="36"/>
+    </row>
+    <row r="7" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="40"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="40"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="40"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="26">
+        <f>B10/E$5</f>
+        <v>5.4</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="40"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="40"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="26">
+        <v>50</v>
+      </c>
+      <c r="C15" s="18">
+        <f>B15/9</f>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="D15" s="40">
+        <f>C15/B$10</f>
+        <v>9.2592592592592595</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="26">
+        <v>54</v>
+      </c>
+      <c r="C16" s="18">
+        <f t="shared" ref="C16:C17" si="0">B16/9</f>
+        <v>6</v>
+      </c>
+      <c r="D16" s="40">
+        <f t="shared" ref="D16:D17" si="1">C16/B$10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="41">
+        <v>27</v>
+      </c>
+      <c r="C17" s="42">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D17" s="43">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="40"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="40"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="40"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="26">
+        <f>B23/E$5</f>
+        <v>2.7</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="40"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="40"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="26">
+        <v>50</v>
+      </c>
+      <c r="C28" s="18">
+        <f>B28/9</f>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="D28" s="40">
+        <f>C28/B$23</f>
+        <v>18.518518518518519</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="26">
+        <v>54</v>
+      </c>
+      <c r="C29" s="18">
+        <f t="shared" ref="C29:C30" si="2">B29/9</f>
+        <v>6</v>
+      </c>
+      <c r="D29" s="40">
+        <f t="shared" ref="D29:D30" si="3">C29/B$23</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="41">
+        <v>27</v>
+      </c>
+      <c r="C30" s="42">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D30" s="43">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45230C2B-B25C-4F68-BC73-8A168C2744E1}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="K15" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBD9275-8E28-4C5A-AF74-EB5752901F53}">
   <dimension ref="A2:H20"/>
   <sheetViews>
@@ -3474,20 +4285,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>14740000</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="E2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D3">
@@ -3498,7 +4309,7 @@
       <c r="A4" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -3513,10 +4324,10 @@
       <c r="A5" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D5">
@@ -3527,54 +4338,54 @@
       <c r="A6" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="12"/>
       <c r="D6">
         <v>3.6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="16">
+      <c r="C8" s="12"/>
+      <c r="D8" s="15">
         <f>$D$4*$D$5</f>
         <v>631714.2857142858</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <f>$D$5*$D$4*$D$6</f>
         <v>2274171.4285714291</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <f>$D$5*$D$4*$D$6*100</f>
         <v>227417142.85714293</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="12"/>
       <c r="D9">
         <f>ROUNDUP(LOG(D8,2),0)</f>
         <v>20</v>
@@ -3589,148 +4400,148 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26" t="s">
+      <c r="G10" s="24"/>
+      <c r="H10" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="27"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="28" t="s">
+      <c r="G11" s="17"/>
+      <c r="H11" s="27" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="29" t="s">
+      <c r="G12" s="18"/>
+      <c r="H12" s="28" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="30">
+      <c r="B13" s="29">
         <v>1000000</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22">
+      <c r="C13" s="20"/>
+      <c r="D13" s="21">
         <f>$D$8/$B13</f>
         <v>0.63171428571428578</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22">
+      <c r="E13" s="21"/>
+      <c r="F13" s="21">
         <f>$F$8/$B13</f>
         <v>2.274171428571429</v>
       </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="31">
+      <c r="G13" s="21"/>
+      <c r="H13" s="30">
         <f>$H$8/$B13</f>
         <v>227.41714285714292</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="30">
+      <c r="B14" s="29">
         <v>500000</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21">
         <f t="shared" ref="D14:D17" si="0">$D$8/$B14</f>
         <v>1.2634285714285716</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22">
-        <f t="shared" ref="F14:H17" si="1">$F$8/$B14</f>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21">
+        <f t="shared" ref="F14:F17" si="1">$F$8/$B14</f>
         <v>4.5483428571428579</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="31">
+      <c r="G14" s="21"/>
+      <c r="H14" s="30">
         <f t="shared" ref="H14:H17" si="2">$H$8/$B14</f>
         <v>454.83428571428584</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="30">
+      <c r="B15" s="29">
         <v>100000</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22">
+      <c r="C15" s="20"/>
+      <c r="D15" s="21">
         <f t="shared" si="0"/>
         <v>6.3171428571428576</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22">
+      <c r="E15" s="21"/>
+      <c r="F15" s="21">
         <f t="shared" si="1"/>
         <v>22.741714285714291</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="31">
+      <c r="G15" s="21"/>
+      <c r="H15" s="30">
         <f t="shared" si="2"/>
         <v>2274.1714285714293</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="30">
+      <c r="B16" s="29">
         <v>50000</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22">
+      <c r="C16" s="20"/>
+      <c r="D16" s="21">
         <f t="shared" si="0"/>
         <v>12.634285714285715</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22">
+      <c r="E16" s="21"/>
+      <c r="F16" s="21">
         <f t="shared" si="1"/>
         <v>45.483428571428583</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="31">
+      <c r="G16" s="21"/>
+      <c r="H16" s="30">
         <f t="shared" si="2"/>
         <v>4548.3428571428585</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="32">
+      <c r="B17" s="31">
         <v>10000</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34">
+      <c r="C17" s="32"/>
+      <c r="D17" s="33">
         <f t="shared" si="0"/>
         <v>63.171428571428578</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34">
+      <c r="E17" s="33"/>
+      <c r="F17" s="33">
         <f t="shared" si="1"/>
         <v>227.41714285714292</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35">
+      <c r="G17" s="33"/>
+      <c r="H17" s="34">
         <f t="shared" si="2"/>
         <v>22741.714285714294</v>
       </c>
@@ -3743,7 +4554,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
-      <c r="C20" s="13"/>
+      <c r="C20" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3751,7 +4562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F0FC3F-DE5A-4D78-909C-A5291776C0C5}">
   <dimension ref="A1:S52"/>
   <sheetViews>
@@ -3780,12 +4591,12 @@
       <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
         <v>33</v>
@@ -4959,7 +5770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43748CBE-D409-494C-B676-FD84B2786DF8}">
   <dimension ref="B2:I16"/>
   <sheetViews>
@@ -4980,7 +5791,7 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>14740000</v>
       </c>
     </row>
@@ -5139,7 +5950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787509D4-8F11-4FA5-92CA-65E55090F2E3}">
   <dimension ref="B3:H20"/>
   <sheetViews>
@@ -5316,7 +6127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B96623D-FF22-441A-ADB1-778F8D735941}">
   <dimension ref="B4:G45"/>
   <sheetViews>
@@ -5728,7 +6539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF3B26C-6B3B-4B7D-AA15-714311842B53}">
   <dimension ref="A3:C9"/>
   <sheetViews>
